--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,14 +726,639 @@
           <t>배상금, 보장</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20230303</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20230303</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>contentmens</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>만족, 희열, 큰 기쁨</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>leniently</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>꼼꼼하게, 좀스럽게</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>관대하게</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ambinalent</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>웅변의, 설득력 있는</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>상반된 감정을 가진, 감정이 교차하는</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>unquenchable</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>채울 수 없는, 만족을 모르는</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>채울 수 없는, 충족시킬 수 없는</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dilapidate</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>실망시키다, 당황하게 하다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>황폐하게 하다, 파손하다</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>plod away</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>열심히 일하다</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>impetuous</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>평범한</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>성급한, 충동적인</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>contempt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>경멸, 모욕</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>실망시키다, 당황하게 하다</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>확신시키다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>결심하다</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>excruciate</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>유죄 판결을 내리다, 형을 선고하다</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>괴롭히다</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>경멸, 모욕</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>성향(기질)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>antonymous</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>익명의</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>반의어의</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>inducement</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>일치, 합치</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>유인책, 장려책</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>indignation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>불일치, 모순</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>contemplation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>일치, 합치</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>사색, 명상</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>commotion</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>무관심</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>소란, 소동</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>resentment</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>경멸, 모욕</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>indulgence</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>불안</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>사치, 하고 싶은 대로 하는 것</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>intolerant</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>충동적인</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>너그럽지 못한, 편협한</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>antagonistic</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>뛰어난</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>적대적인</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>09시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>altruistic</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>명쾌한</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>이타적인</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>09시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>stick up for</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>구슬리다</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>옹호하다</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>infatuation</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>무질서, 혼란</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(사랑의)열병</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230308</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>contempt</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>배상금, 보장</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>경멸, 모욕</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20230308</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,14 +1351,3710 @@
           <t>경멸, 모욕</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20230308</t>
-        </is>
+      <c r="D37" t="n">
+        <v>20230308</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>deounce</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>비난하다</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>apogee</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>공리주의자</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>12시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>confide</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>제외시키다, 배제하다, 불가능하게 하다</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>비밀 등을 털어 놓다</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>체면, 예절</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>delicacy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>decency</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>preoccupied with</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>명성 있는, 유명한</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>~에 몰두한, ~에 집착하는</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>appease</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>달래다, 요구를 들어주다</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>futile</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>순전한</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>무익한</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>compromise</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>입증하다</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>위태롭게 하다, 손상시키다, 협상(타협)하다</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>비난</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>meander</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>무시하다</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>두서없이 이야기하다</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>빈곤한</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mull over</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">응시하다, 집차가다 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>숙고하다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>avert</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>논박하다</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>~에서 돌리다, 외면하다</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>증오, 혐오</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>orator</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>odium</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>proliferation</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>감사</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>확산</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sworn</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>독실한</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>선서한</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>경멸, 모욕</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>등장, 도래, 출현</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>digress</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>명예를 훼손하다</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>12시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>excoriate</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>구속하다, 속박하다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>피부(가죽, 껍질)를 벗기다, 통렬히 비난하다</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cordial</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>가난해진</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>다정한</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>틀릴 수 없는</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>emancipate</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>괴롭히다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>해방시키다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>12시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>fetter</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>구속하다, 속박하다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>blithe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>굽실거리는</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>태평스러운, 쾌활한, 행복한</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>사람을 싫어하는</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fetter</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>제외시키다, 배제하다, 불가능하게 하다</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>구속하다, 속박하다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>비실제적인</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>tractable</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>다정한</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>유순한</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>stick up for</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>착취하다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>옹호하다</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>돌보다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>take after</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>take care of</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>선동가</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>unscrupulous</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>분해할 수 있는</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>부도덕한</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>precipitate</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>감시하다</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>촉진하다</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>털어놓다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>let off</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>pretrial</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>확실한, 확신 있는</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>공판 전의</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>impair</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>손상시키다</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>condemn</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>유죄 판결을 내리다, 형을 선고하다</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>annihilate</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~을 복습하다, 다시 공부하다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>전멸시키다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>laudable</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>화난</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>칭찬할 만한</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>consecutive</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>의심스러운, 수상쩍은</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>연속적인</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>신탁</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>odium</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>oracle</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>demeanor</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>평온</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>태도, 품행</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>digress</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>달래다, 요구를 들어주다</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>13시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>도입하다, 시행하다, 부과하다, 지우다</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>착취하다</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sobriety</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>혐오감</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>맨정신, 냉정, 절주, 절제</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>13시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>인색한</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>건방진</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>13시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>bribery</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>성향(기질)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>뇌물, 뇌물 수수</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>lodge</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>박히다 : 숙박하다, 오두막</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>13시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>털어놓다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>let off</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>13시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>impair</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>약화시키다</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>손상시키다</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>13시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>위임(장), 임무, 책무</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>13시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>명량한</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>건방진</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>digress</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>위조하다</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>13시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>deain</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>달래다, 평화를 가져오다</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>iron out</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>위조하다</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>(오해, 장애물 등을)없애다, 해결하다 : 원뜻은 '다림질하다, 원활하게 하다'이다</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>rescind</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>심문하다</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>무효로 하다, 폐지하다</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>deain</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>13시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>범인, 악인, 악한</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>13시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>connivance</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>묵과</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ambinalent</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>순전한</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>상반된 감정을 가진, 감정이 교차하는</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>13시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>dormant</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>내성적인</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>잠자는</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>13시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>perspicuous</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>냉담한, 무관심한</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>명쾌한</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>13시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>languish</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>두서없이 이야기하다</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>쇠약해지다, 활기를 잃다</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>13시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>depreciate</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>매혹하다, 마음을 사로잡다</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ammunition</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>의료인</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>탄약, 무기</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>loquacious</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>섬세한</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>말이 많은</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>13시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>engross</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>달래다, 평화를 가져오다</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>몰두하게 만들다</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>demeanor</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>부랑자</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>태도, 품행</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>13시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>condescending</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>경솔한</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>잘난 체하는, 거들먹거리는</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>suspicious</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>건방진</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>의심스러운, 수상쩍은</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>13시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>attenuate</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>입증하다</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>약화시키다</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>13시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>redress</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>명상하다, 숙고하다</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>사정하다, 바로잡다</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>13시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>insolent</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>무례한</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>laudation</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>전임자</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>칭찬, 찬미</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>laudation</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>찬사</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>칭찬, 찬미</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>15시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ammunition</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>합병</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>탄약, 무기</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>dormant</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>잠자는</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>insolent</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>인색한</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>무례한</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>pace</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>회피하다, 교묘히 피하다, 손을 빼다</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>속도(보조)를 조절하다</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>prominence</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>경이로움</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>걸출, 탁월, 현저, 명성</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>stake out</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>수를 놓다, 꾸미다</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>감시하다</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>delecatable</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>불경한</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>predisposition</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>침착</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>경향, 성질</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>reimburse</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>변상하다, 상환하다</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>15시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ponder</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>위조하다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>숙고하다</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>15시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>align</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>긁어모으다</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>정렬하다</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>불안</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>15시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>malicious</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>마셔도 되는</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>악의 있는, 심술궂은</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>wangle</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>붙잡다, 쥐다</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>얻어내다</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>plunderer</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>뇌물, 뇌물 수수</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>약탈자</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>plod away</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>경멸하다, 얕보다</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>열심히 일하다</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>hedgerow</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>존경, 충성</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>산울타리</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>주고받다, 보답하다</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>retaliate</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>reciprocate</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>달래다, 요구를 들어주다</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>결심하다</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>reticent</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>과묵한, 말이 적은</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>itineant</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>부도덕한</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>exquisite</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>섬세한</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>정교한, 세련된</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>capitulate</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>혼란에 빠뜨리다</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>굴복하다</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>abduct</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>납치하다</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>15시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>spiteful</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>칭찬할 만한</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>원한을 품은, 악의 있는</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>indigenous</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>위협하는</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>토착의</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>indulgence</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>예비, 준비(적립)금</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>사치, 하고 싶은 대로 하는 것</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>stingy</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>아첨하는</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>인색한</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>amalagmation</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>허점, 빠져나갈 구멍</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>합병</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>apathetic</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>싸우기 좋아하는</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>냉담한, 무관심한</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>stupefaction</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>깜짝놀람, 망연자실</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>선서한</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>abate</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>붙잡다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>약해지다, 약화시키다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>interrogate</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>피하다, 피해가다, 우회하다</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>심문하다</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>16시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>promulgate</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>황폐하게 하다, 파손하다</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>반포(공포)하다, 널리 알리다</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>16시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>apogee</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>호사가</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>16시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>manifest</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>예상하다, 예측하다</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>명백히 하다, 명시하다</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>미신</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>superiority</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>superstition</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>위협하는</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>뛰어난</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>calumny</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>전임자</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>비방</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>16시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>indignation</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>감시, 감사, 사찰</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>concoct</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>impugnment</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>독특함</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>비난, 공격</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>16시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>felicitous</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>비열한, 야비한</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>16시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>보복하다</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>reciprocate</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>retaliate</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>16시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>낄낄 웃음</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>giggle</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>chuckle</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>countenance</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>독특함</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>용모, 생김새: 지지하다</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>devout</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>사람을 싫어하는</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>독실한</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>16시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>tout</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>실망시키다, 당황하게 하다</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>(설득하기 위해)장점을 내세우다: 제품을 홍보(광고)하다, 극구 칭찬하다, 과장하여 선전하다</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>16시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>concoct</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>자금을 공급하다</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>낄낄 웃음</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>giggle</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>chuckle</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>16시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>apathetic</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>잡식성의</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>냉담한, 무관심한</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>16시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>delecatable</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>타락한</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>16시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>capitulate</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>달아나다</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>굴복하다</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>16시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>미신</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>superiority</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>superstition</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>16시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>reimburse</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>부과하다, 징수하다</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>변상하다, 상환하다</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>itineant</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>신중한</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>17시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>countenance</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>영장, 보증</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>용모, 생김새: 지지하다</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>17시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>평범한</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>17시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>결핍</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>17시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>stingy</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>~에 몰두한, ~에 집착하는</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>인색한</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>17시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>felicitous</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>비실제적인</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>17시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>reticent</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>선서한</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>과묵한, 말이 적은</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>17시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>indigenous</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>염려하는, 걱정하는</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>토착의</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>17시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>plucky</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>속물적인</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>대담한</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>17시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>impudent</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>발랄한, 쾌활한</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>17시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>viscerally</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>꼼꼼하게, 좀스럽게</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>내장에서, 본능적으로</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>17시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>무효로 하다, 취소하다</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>17시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>unpretentious</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>순전한</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>17시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>누그러지다</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230311</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>17시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>excoriate</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>반짝이다, 빛나다</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>피부(가죽, 껍질)를 벗기다, 통렬히 비난하다</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>20230311</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>17시 23분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5047,14 +5047,1064 @@
           <t>피부(가죽, 껍질)를 벗기다, 통렬히 비난하다</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>20230311</t>
-        </is>
+      <c r="D185" t="n">
+        <v>20230311</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>17시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>얽히게 하다, (곤경 등에) 빠뜨리다</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>11시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>felicitous</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>형벌의</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>11시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>assertory</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>웅변의, 설득력 있는</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>긍정적인, 단정적인</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>11시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>hail</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>기쁘게하다, 만족시키다</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>경의를 표하다</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>11시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>검소한</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>countenance</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>무질서, 혼란</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>용모, 생김새: 지지하다</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>felicitous</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>복종하는, 순종적인</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>unpretentious</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>사심 없는, 청렴한, 공평한</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>concoct</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>옹호하다, 주장하다</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>11시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>laudation</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>호사가</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>칭찬, 찬미</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>excoriate</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">응시하다, 집착하다 </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>피부(가죽, 껍질)를 벗기다, 통렬히 비난하다</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>reticent</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>명성 있는, 유명한</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>과묵한, 말이 적은</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>put down</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>묵인하다, 눈감아주다</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>적어두다, 신청하다, 착륙하다</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>11시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>낄낄 웃음</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>giggle</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>chuckle</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>원한, 분개</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>누그러지다</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>let on</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>말하다, 읊다</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>(수준, 양 등이)~이다</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>languish</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>(수준, 양 등이) ~이다</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>쇠약해지다, 활기를 잃다</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>apathy</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>전임자</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>무관심</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>plot</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>조작하다, 날조하다</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>계획하다, 음모를 꾸미다</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>gratification</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>감시, 감사, 사찰</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>만족, 희열, 큰 기쁨</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>galvanize</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>주장하다, 진술하다, 발음하다</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>논박, 논증</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>confession</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>confutation</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>evoke</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>비방하다</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>자아내다</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>futile</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>비실제적인</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>무익한</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>exalt</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>용서하다</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>아주 기쁘게 하다, 유쾌하게 하다</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>perspicuous</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>명쾌한</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>resentment</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>기질</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>sobriety</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>비방</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>맨정신, 냉정, 절주, 절제</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>의료인</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>등장, 도래, 출현</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>slight</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>쇠약해지다, 활기를 잃다</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>경멸하다, 얕보다</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>laid-back</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>발랄한, 쾌활한</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>느긋한, 마음 편한</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>demagogue</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>사재, 개인 재산</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>선동가</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>elucidate</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>설명하다, 밝히다</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>deain</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>납치하다</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>loquacious</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>잡식성의</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>말이 많은</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ad-hoc</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>징계의, 규율의</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>즉석의, 임시의</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>일치, 합치</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>depreciate</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>(설득하기 위해) 장점을 내세우다</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>disparaging</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>매도하는, 욕설하는</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>비난하는, 폄하하는, 경멸하는, 헐뜯는</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>침울한</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230313</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>감금</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>confession</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>confinement</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>20230313</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6097,14 +6097,3039 @@
           <t>confinement</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>20230313</t>
-        </is>
+      <c r="D227" t="n">
+        <v>20230313</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
           <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>advent</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>전임자</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>등장, 도래, 출현</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>08시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>reticent</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>불경한</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>과묵한, 말이 적은</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>08시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>논박, 논증</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>confinement</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>confutation</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>08시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>apathy</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>산울타리</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>무관심</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>08시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>칭찬</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>08시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>loquacious</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>조용한, 내성적인</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>말이 많은</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>08시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>exalt</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>비난하다</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>아주 기쁘게 하다, 유쾌하게 하다</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>deain</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>~을 가볍게 여기다, 경시하다</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>08시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>itineant</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>확실한, 확신 있는</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>08시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>excoriate</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>용서하다</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>피부(가죽, 껍질)를 벗기다, 통렬히 비난하다</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>08시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>laudation</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>복종, 종속 관계</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>칭찬, 찬미</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>08시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>elucidate</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>경멸하다, 얕보다</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>설명하다, 밝히다</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>08시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>languish</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>두서없이 이야기하다</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>쇠약해지다, 활기를 잃다</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>concoct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>인수하다</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>delecatable</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>영리한</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>08시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>felicitous</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>명성 있는, 유명한</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>itineant</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>순전한</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>deain</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>명상하다, 숙고하다</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>구금하다</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>unpretentious</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>건방진</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>09시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>pariah</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>위험</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>부랑자</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>09시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>connive</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>만들다, 지어내다</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>묵인하다, 눈감아주다</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>09시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>hedgerow</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>침착</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>산울타리</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>09시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>morose</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>느긋한, 마음 편한</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>침울한</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>09시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>condescending</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>다루기 힘든, 말을 듣지 않는, 고집센</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>잘난 체하는, 거들먹거리는</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>proximation</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>걸출, 탁월, 현저, 명성</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>가장 가까이 함</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>impugnment</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>소란, 소동</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>비난, 공격</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>09시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>선동가</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>보복하다</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>repdiate</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>retaliate</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>09시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>embroider</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>수를 놓다, 꾸미다</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>wangle</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>포옹하다, 포괄하다</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>얻어내다</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>영리한</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>건방진</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>09시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>conglomerate</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>합병</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>집단, 복합체, 복합 기업</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>dismiss</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>무효화하다</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>무시하다</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>impetuous</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>변하기 쉬운</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>성급한, 충동적인</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>09시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>aide</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>태도, 품행</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>측근, 보좌관</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>appalling</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>조용한, 내성적인</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>corporal</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>명료한, 모호하지 않은</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>신체의, 개인적인</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>corporal</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>평범한</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>신체의, 개인적인</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>09시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>unpretentious</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>무익한</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>wangle</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>감시하다</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>얻어내다</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>09시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>elucidate</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>설명하다, 밝히다</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>09시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>connive</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>달아나다</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>묵인하다, 눈감아주다</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>dismiss</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>해결하다, 결심하다, 분해하다</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>무시하다</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>09시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>exhilarate</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>옹호하다, 변호하다</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>아주 기쁘게 하다, 유쾌하게 하다</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>09시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>감금</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>confession</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>confinement</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>09시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>galvanize</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>수를 놓다, 꾸미다</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>09시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>impoverished</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>가식 없는</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>가난해진</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>09시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>dignitary</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>정부 고관</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>impudent</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>돌출한</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>bracket</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>아량, 관대함</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>계층</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>10시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>ravenous</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>포괄적인</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>탐욕스러운</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>blithe</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>태평스러운, 쾌활한, 행복한</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>10시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ranch</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>국외거주자</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>목장, 농장</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>요점을 되풀이하며 말하다, 개괄하다</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>reciprocate</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>recapitulate</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>10시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>glisten</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>낭비하다</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>반짝이다, 빛나다</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>denigration</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>두운, 두운법칙</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>더럽힘, 명예훼손, 폄하</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>wheedle away</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>쇠약해지다, 활기를 잃다</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>구슬리다</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>plod away</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>열심히 일하다</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>분함, 억울함</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>pompous</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>귀여운</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>잘난체 하는</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>침해, 침략, 침입</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>성향(기질)</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>unabashed</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>대담한</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>dignitary</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>충성</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>정부 고관</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>10시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>ingenuity</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>사색, 명상</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>10시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>unabashed</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>탐욕스러운</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>대담한</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>10시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>exhilarate</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>사정하다, 바로잡다</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>아주 기쁘게 하다, 유쾌하게 하다</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>10시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>galvanize</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>인수하다</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>10시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>connive</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>순응하다, 준수하다</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>묵인하다, 눈감아주다</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>10시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>blithe</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>태평스러운, 쾌활한, 행복한</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>denigration</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>속임수, 눈속임, 트릭</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>더럽힘, 명예훼손, 폄하</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>pompous</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>영리한</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>잘난체 하는</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>bracket</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>사치, 하고 싶은 대로 하는 것</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>계층</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>10시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>해산</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>호사가: 일을 벌이기를 좋아하는 사람</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>10시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>요점을 되풀이하며 말하다, 개괄하다</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>retaliate</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>recapitulate</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>10시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>perverse</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>조롱하는</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>take back from</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>약해지다, 약화시키다</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>인수하다</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>10시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>as such</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>사실상의, 실제로</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>그렇기 때문에, 그러함에 따라</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>10시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>temperament</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>창의력</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>기질</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>10시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>gimmick</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>침착</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>속임수, 눈속임, 트릭</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>10시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>피상</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>superstition</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>superficiality</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>10시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>excruciate</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>괴롭히다</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>10시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>libel</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>명예를 훼손하다</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>10시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>deounce</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>묵인하다</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>비난하다</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>pretrial</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>잘난 체하는, 거들먹거리는</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>공판 전의</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>10시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>밝혀지다</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>turn out</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>10시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>homage</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>정부 고관</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>존경, 충성</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>10시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>alliteration</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>범인, 악인, 악한</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>두운, 두운법칙</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>10시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>levy</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>강화하다</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>부과하다, 징수하다</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>10시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>rescind</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>설명하다, 밝히다</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>무효로 하다, 폐지하다</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>10시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>discursive</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>차분한</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>dilapidate</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>황폐하게 하다, 파손하다</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>10시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>preclude</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>논박하다</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>막다, 방해하다: hamper</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>digress</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>(칼 등을) 갈다, (식욕 등을) 자극하다, 돋우다</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>주제에서 벗어나다</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>11시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>meandering</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>명성 있는, 유명한</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>두서없는, 산만한</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>11시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>섬세한</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>징계의, 규율의</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>apathetic</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>흉포한, 격렬한</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>냉담한, 무관심한</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>rake up</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>계획하다, 음모를 꾸미다</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>긁어모으다</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>11시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>scrupulous</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>비난하는, 폄하하는, 경멸하는, 헐뜯는</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>면밀한, 양심적인</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>11시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>실망시키다</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>let up</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>let down</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>11시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>laudable</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>칭찬할 만한</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>dislocate</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>(설득하기 위해) 장점을 내세우다</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>혼란에 빠뜨리다</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>11시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>railing</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>매도하는, 욕설하는</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>11시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>contrive</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>조작하다, 다루다, 처리하다</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>고안하다, 설계하다, 꾀하다</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>11시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>annihilate</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>전멸시키다</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>perspicuous</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>비뚤어진</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>명쾌한</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>11시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>unflinchingly</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>간단히 말해, 간결하게</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>굴하지(움츠리지)않고</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>조작하다, 날조하다</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>감독</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>superiority</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>supervision</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>11시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>demeanor</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>경향, 성질</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>태도, 품행</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>disciplinary</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>선서한</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>징계의, 규율의</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>venal</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>(구정물 등으로) 더럽혀진, 흠뻑 젖은</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>타락한</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>redundant</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>떠돌아다니는</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>여분의</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>conspire</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>입증하다</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>공모하다, 작당하다</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>11시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>manifest</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>조작하다, 다루다, 처리하다</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>명백히 하다, 명시하다</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>despicable</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>뻔뻔스러운, 철면피의</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>비열한, 야비한</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>ferocious</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>영리한</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>흉포한, 격렬한</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>exuberbce</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>걸출, 탁월, 현저, 명성</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>풍부, 무성, 충일(넘쳐흐름)</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>11시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>킥킥 웃음</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>smirk</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>giggle</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>pseudonymous</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>익명의</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>익명의, 익명을 쓰는</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230314</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>renounce</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>감정을 환기시키다</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>포기하다, 단념하다</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>20230314</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9122,14 +9122,264 @@
           <t>포기하다, 단념하다</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>20230314</t>
-        </is>
+      <c r="D348" t="n">
+        <v>20230314</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
           <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>clamor</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>무시하다</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>떠들어대다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>18시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>aggregate</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>감정을 환기시키다</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>모으다</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>18시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>ameliorate</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>착취하다</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>개선하다, 좋아지다</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>18시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>allude</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>얻어내다</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>언급하다, 암시하다</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>18시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>trade on</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>인수하다</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>~을 이용하다</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>18시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>conceive</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>이용하다</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>생각하다</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>pose</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>명예를 훼손하다</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>제기하다</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>rationalization</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>무질서, 혼란</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>합리화</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>18시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>obliging</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>너그럽지 못한, 편협한</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>~하게 되는</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230316</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>18시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>contemplate</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>구슬리다</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>심사숙고하다</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>20230316</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>18시 17분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9372,14 +9372,1214 @@
           <t>심사숙고하다</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>20230316</t>
-        </is>
+      <c r="D358" t="n">
+        <v>20230316</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
           <t>18시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>culmination</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>사재, 개인 재산</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>devout</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>확실한, 확신 있는</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>독실한</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>acme</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>독특함</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>정점</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>docility</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>합병</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>온순</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>as such</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>~에 뒤이어, ~의 결과로서</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>그렇기 때문에, 그러함에 따라</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>21시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>impair</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>비난하다</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>손상시키다</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>21시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>epitomize</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>명백히 하다, 명시하다</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>집약적(전형적)으로 보여주다, 요약하다</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>relent</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>해결하다, 결심하다, 분해하다</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>누그러지다, 가엽게 여기다</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>hop off</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>겁먹다</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>이륙하다</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>misanthropic</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>반의어의</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>사람을 싫어하는</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>dignitary</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>실용주의자</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>정부 고관</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>appretice</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>수습생</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>make up one's mind</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>평가하다</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>결심하다</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>verify</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>일치시키다</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>확인하다</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>indemnity</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>탐욕</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>배상금, 보장</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>panegyrics</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>상원의원</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>찬사</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>crack down to</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>(칼 등을) 갈다, (식욕 등을) 자극하다, 돋우다</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>탄압하다</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230329</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>21시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>make do with</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>임시변통하다</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>levy</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>충격 요법을 쓰다, 자극하다</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>부과하다, 징수하다</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>06시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>sparse</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>아첨하는</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>부족한</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>stick up for</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>옹호하다</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>infatuation</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>소란, 소동</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>(사랑의)열병</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>06시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>tout</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>(설득하기 위해)장점을 내세우다: 제품을 홍보(광고)하다, 극구 칭찬하다, 과장하여 선전하다</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>06시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>contrive</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>의견을 같이하다</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>고안하다, 설계하다, 꾀하다</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>contrive</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>굴복하다</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>고안하다, 설계하다, 꾀하다</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>06시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>evoke</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>촉진하다</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>감정을 환기시키다</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>중범죄</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>acquiesce</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>묵인하다</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>일탈, 일선</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>decency</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>deviation</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>06시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>leniently</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>간헐적으로</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>관대하게</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>conspire</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>확인하다</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>공모하다, 작당하다</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>appalling</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>절묘한</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>dank</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>명량한</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>눅눅한</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>unflinchingly</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>보란 듯이</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>굴하지(움츠리지)않고</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>convene</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>집약적(전형적)으로 보여주다, 요약하다</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>소집하다</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>06시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>acquiesce</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>붙잡다, 체포하다</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>묵인하다</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>06시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>precarious</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>널리 퍼져 있는</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>불안정한, 위험한</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>convene</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>집약적(전형적)으로 보여주다, 요약하다</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>소집하다</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>06시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>unflinchingly</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>주장하건대, 거의 틀림없이</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>굴하지(움츠리지)않고</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>06시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>convene</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>달래다, 진정시키다</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>소집하다</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>제외시키다, 배제하다, 불가능하게 하다</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>make light of</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>입증하다</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>~을 가볍게 여기다, 경시하다</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>dislocate</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(오해, 장애물 등을) 없애다, 해결하다 </t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>혼란에 빠뜨리다</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>conformance</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>열의</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>만족</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>viscerally</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>~에 뒤이어, ~의 결과로서</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>내장에서, 본능적으로</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>excruciate</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>위태롭게 하다, 손상시키다, 협상(타협)하다</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>괴롭히다</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230330</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>unflinchingly</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>그 자체로, 본질적으로</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>굴하지(움츠리지)않고</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>20230330</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E406"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10572,14 +10572,439 @@
           <t>굴하지(움츠리지)않고</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>20230330</t>
-        </is>
+      <c r="D406" t="n">
+        <v>20230330</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
           <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>퍼지다, 뒤덮다</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>excruciate</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>곰곰히 생각하다, 자세히 조사하다</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>괴롭히다</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>확신시키다</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>폐지하다</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>20시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>whet</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>정상적인 생활을 하지 못하게 만들다</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>(칼 등을)갈다, (식욕 등을)자극하다, 돋우다</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>범인, 악인, 악한</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>시골길</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>reluctant</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>유쾌한</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>꺼리는</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>verify</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>촉진하다, 용이하게 하다</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>확인하다</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>20시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>두서없이 이야기하다</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>(수준, 양 등이)~이다</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>미신</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>superiority</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>superstition</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>옹호하다</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>(수준, 양 등이)~이다</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>perplexed</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>검소한</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>당황한</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>20시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>착취하다</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>depreciate</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>경시하다, 폄하하다</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>헐뜯다</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>intrepid</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>빠른, 날렵한, 민첩한, 영리한</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>대담한, 용맹한</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>penal</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>다수의</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>징계의, 규율의</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>지우다, 삭제하다</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>disseminate</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>경멸하다, 얕보다</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>보급하다, 퍼뜨리다</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>20230331</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
         </is>
       </c>
     </row>
